--- a/JSON import ISBNs into Create Lists.xlsx
+++ b/JSON import ISBNs into Create Lists.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>{"queries": [</t>
   </si>
@@ -46,13 +46,25 @@
   </si>
   <si>
     <t>If text is copied incorrectly in error, here is the code for the first and last lines</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
+  <si>
+    <t>Alternate method</t>
+  </si>
+  <si>
+    <t>{"queries":[{"target":{"record":{"type": "item"},"field": {"tag": "b"}},"expr": {"op": "in","operands": [</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +106,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,10 +151,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,40 +453,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="41.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7"/>
@@ -529,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D13" si="0">CONCATENATE(A9,B9,C9)</f>
+        <f t="shared" ref="D9:D21" si="0">CONCATENATE(A9,B9,C9)</f>
         <v>{"target": {"record": {"type": "bib"},"field": {"tag": "i"}},"expr":{"op": "has", "operands": ["451224787",""]}}, "or",</v>
       </c>
     </row>
@@ -583,6 +610,100 @@
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="39">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"queries":[{"target":{"record":{"type": "item"},"field": {"tag": "b"}},"expr": {"op": "in","operands": [</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10">
+        <v>36294159907515</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>"36294159907515",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>36294159908877</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>"36294159908877",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10">
+        <v>36294000232048</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>"36294000232048",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>36294000232089</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>"36294000232089",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10">
+        <v>36294159902524</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>"36294159902524"]}}]}</v>
       </c>
     </row>
   </sheetData>
